--- a/biology/Médecine/Sabine_Arnaud/Sabine_Arnaud.xlsx
+++ b/biology/Médecine/Sabine_Arnaud/Sabine_Arnaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabine Arnaud est une historienne des sciences française spécialisée, entre autres, dans l'histoire de l'hystérie.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2007, Sabine Arnaud soutient sa thèse Mise en récit et enjeux politiques d'un diagnostic : l'hystérie entre 1730 et 1820 : construction et circulation d'une catégorie médicale en littérature comparée avec l'Université de la ville de New York, en Histoire et Civilisations avec l'École des hautes études en sciences sociales à la suite de deux diplômes en Philosophie et Esthétique avec l'université de Paris VIII. Pour ce travail de recherche, elle explore des sources françaises et anglaises : traités, journaux, manuscrits, cours de médecine, ouvrages de morale, pamphlets, pièces de théâtre, contes, et romans.
-Après sa thèse, elle obtient un poste « d'assistant professor tenure track » à l'Université A&amp;M du Texas[1].
-De 2010 à 2017, elle est directrice de recherche à l'Institut Max-Planck d'histoire des sciences à Berlin[2]. Elle dirige une recherche  sur L'écriture de la surdité et la construction de normes en Europe occidentale et aux États-Unis du XVIIe à la fin du XIXe siècle. Elle s'intéresse en particulier au rôle du langage dans la définition de la condition humaine[2].
-En janvier 2014, elle publie L’invention de l’hystérie au temps des Lumières (1670-1820)[3] Cet ouvrage est remarqué : il emporte plusieurs prix. Elle publie également une version en anglais en 2015 sous le titre On Hysteria: The Invention of a Medical Category (1670-1820)[2] et une traduction allemande de la version française paraît en 2019[4]. Son ouvrage est un contrepoint de l'ouvrage de Georges Didi-Huberman publié en 1982. Sabine Arnaud trace une histoire genrée de la maladie. Pour cela, elle fait référence aux écrits médicaux et littéraires[5]. 
-Arnaud se penche tout particulièrement sur l’écriture médicale à la veille du développement d’une écriture scientifique[6]. 
-Depuis 2017, elle est directrice de recherche au CNRS[7].
-Après s’être concentrée sur la formation et la diffusion du savoir médical à travers l’invention et l’établissement d’une catégorie médicale au dix-huitième siècle, elle se consacre aujourd'hui[Quand ?] plus particulièrement à l’histoire de l’éducation et de la langue des signes française au dix-huitième siècle et au dix-neuvième siècle[8],[9].
+Après sa thèse, elle obtient un poste « d'assistant professor tenure track » à l'Université A&amp;M du Texas.
+De 2010 à 2017, elle est directrice de recherche à l'Institut Max-Planck d'histoire des sciences à Berlin. Elle dirige une recherche  sur L'écriture de la surdité et la construction de normes en Europe occidentale et aux États-Unis du XVIIe à la fin du XIXe siècle. Elle s'intéresse en particulier au rôle du langage dans la définition de la condition humaine.
+En janvier 2014, elle publie L’invention de l’hystérie au temps des Lumières (1670-1820) Cet ouvrage est remarqué : il emporte plusieurs prix. Elle publie également une version en anglais en 2015 sous le titre On Hysteria: The Invention of a Medical Category (1670-1820) et une traduction allemande de la version française paraît en 2019. Son ouvrage est un contrepoint de l'ouvrage de Georges Didi-Huberman publié en 1982. Sabine Arnaud trace une histoire genrée de la maladie. Pour cela, elle fait référence aux écrits médicaux et littéraires. 
+Arnaud se penche tout particulièrement sur l’écriture médicale à la veille du développement d’une écriture scientifique. 
+Depuis 2017, elle est directrice de recherche au CNRS.
+Après s’être concentrée sur la formation et la diffusion du savoir médical à travers l’invention et l’établissement d’une catégorie médicale au dix-huitième siècle, elle se consacre aujourd'hui[Quand ?] plus particulièrement à l’histoire de l’éducation et de la langue des signes française au dix-huitième siècle et au dix-neuvième siècle,.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La philosophie des vapeurs, Paris, Mercure de France, 2009, 208 p. (ISBN 978-2-7152-2864-1)
 Le corps et ses images dans l'Europe du dix-huitième siècle, Paris, Champion, 2012, 369 p. (ISBN 978-2-7152-2864-1)
@@ -581,12 +597,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de la Société française d'histoire des sciences et des techniques, 2009
-Prix d'histoire de la médecine, Société d'histoire de la médecine et de l'Académie nationale de médecine, 2014[10]
-Bourse Marcelle Blum, Académie des sciences morales et politiques, 2015[11]
-Prix des jeunes historiens, Académie internationale d'histoire des sciences, 2015[12]</t>
+Prix d'histoire de la médecine, Société d'histoire de la médecine et de l'Académie nationale de médecine, 2014
+Bourse Marcelle Blum, Académie des sciences morales et politiques, 2015
+Prix des jeunes historiens, Académie internationale d'histoire des sciences, 2015</t>
         </is>
       </c>
     </row>
